--- a/company.xlsx
+++ b/company.xlsx
@@ -24,276 +24,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="205">
   <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>6 Ashok Leyland Ltd.</t>
-  </si>
-  <si>
     <t>Ashok Leyland Ltd.</t>
   </si>
   <si>
-    <t>46 Tata Power Co. Ltd.</t>
-  </si>
-  <si>
     <t>Tata Power Co. Ltd.</t>
   </si>
   <si>
-    <t>22 ICICI LTD</t>
-  </si>
-  <si>
     <t>ICICI LTD</t>
   </si>
   <si>
-    <t>21 I T C Ltd.</t>
-  </si>
-  <si>
     <t>I T C Ltd.</t>
   </si>
   <si>
-    <t>16 HDFC Bank Ltd.</t>
-  </si>
-  <si>
     <t>HDFC Bank Ltd.</t>
   </si>
   <si>
-    <t>4 Apollo Tyres Ltd.</t>
-  </si>
-  <si>
     <t>Apollo Tyres Ltd.</t>
   </si>
   <si>
-    <t>42 SCICI Ltd.</t>
-  </si>
-  <si>
     <t>SCICI Ltd.</t>
   </si>
   <si>
-    <t>43 State Bank of India</t>
-  </si>
-  <si>
     <t>State Bank of India</t>
   </si>
   <si>
-    <t>24 indian Hotels</t>
-  </si>
-  <si>
     <t>indian Hotels</t>
   </si>
   <si>
-    <t>17 HDFC Ltd.</t>
-  </si>
-  <si>
     <t>HDFC Ltd.</t>
   </si>
   <si>
-    <t>49 Thermax Ltd.</t>
-  </si>
-  <si>
     <t>Thermax Ltd.</t>
   </si>
   <si>
-    <t>45 Tata Motors Ltd.</t>
-  </si>
-  <si>
     <t>Tata Motors Ltd.</t>
   </si>
   <si>
-    <t>28 Industrial Development Bank of India Limited</t>
-  </si>
-  <si>
     <t>Industrial Development Bank of India Limited</t>
   </si>
   <si>
-    <t>2 Ambuja Cements Ltd.</t>
-  </si>
-  <si>
     <t>Ambuja Cements Ltd.</t>
   </si>
   <si>
-    <t>32 Madras Refineries Ltd.</t>
-  </si>
-  <si>
     <t>Madras Refineries Ltd.</t>
   </si>
   <si>
-    <t>44 TATA CHEM</t>
-  </si>
-  <si>
     <t>TATA CHEM</t>
   </si>
   <si>
-    <t>31 Larsen &amp;toubro ltd</t>
-  </si>
-  <si>
     <t>Larsen &amp;toubro ltd</t>
   </si>
   <si>
-    <t>19 Hindalco Industries Ltd.</t>
-  </si>
-  <si>
     <t>Hindalco Industries Ltd.</t>
   </si>
   <si>
-    <t>47 Tata Steel Ltd.</t>
-  </si>
-  <si>
     <t>Tata Steel Ltd.</t>
   </si>
   <si>
-    <t>11 Colgate</t>
-  </si>
-  <si>
     <t>Colgate</t>
   </si>
   <si>
-    <t>38 Reliance Capital Ltd.</t>
-  </si>
-  <si>
     <t>Reliance Capital Ltd.</t>
   </si>
   <si>
-    <t>12 Dr. Reddy’s Laboratories Ltd.</t>
-  </si>
-  <si>
     <t>Dr. Reddy’s Laboratories Ltd.</t>
   </si>
   <si>
-    <t>40 RELIANCE INFRASTRUCTURE LTD</t>
-  </si>
-  <si>
     <t>RELIANCE INFRASTRUCTURE LTD</t>
   </si>
   <si>
-    <t>20 Hindustan Unilever Ltd.</t>
-  </si>
-  <si>
     <t>Hindustan Unilever Ltd.</t>
   </si>
   <si>
-    <t>18 Hero Honda Motors Limited</t>
-  </si>
-  <si>
     <t>Hero Honda Motors Limited</t>
   </si>
   <si>
     <t>ACC Ltd.</t>
   </si>
   <si>
-    <t>5 Arvind Mills Ltd</t>
-  </si>
-  <si>
     <t>Arvind Mills Ltd</t>
   </si>
   <si>
-    <t>7 BAJAJ AUTO</t>
-  </si>
-  <si>
     <t>BAJAJ AUTO</t>
   </si>
   <si>
-    <t>9 Castrol (India) Ltd.</t>
-  </si>
-  <si>
     <t>Castrol (India) Ltd.</t>
   </si>
   <si>
-    <t>10 Chambal Fertilizers &amp; Chemicals Ltd.</t>
-  </si>
-  <si>
     <t>Chambal Fertilizers &amp; Chemicals Ltd.</t>
   </si>
   <si>
-    <t>14 GRASIM</t>
-  </si>
-  <si>
     <t>GRASIM</t>
   </si>
   <si>
-    <t>15 Great Eastern Shipping Company Limited.</t>
-  </si>
-  <si>
     <t>Great Eastern Shipping Company Limited.</t>
   </si>
   <si>
-    <t>25 INDIAN PETROCHEMICALS CORP.LTD</t>
-  </si>
-  <si>
     <t>INDIAN PETROCHEMICALS CORP.LTD</t>
   </si>
   <si>
-    <t>26 Indian Rayon &amp; Industries Ltd.</t>
-  </si>
-  <si>
-    <t>27 Indo Gulf Corporation Ltd.</t>
-  </si>
-  <si>
     <t>Indo Gulf Corporation Ltd.</t>
   </si>
   <si>
-    <t>29 Industrial Finance Corporation Of India Ltd.</t>
-  </si>
-  <si>
     <t>Industrial Finance Corporation Of India Ltd.</t>
   </si>
   <si>
-    <t>30 Kochi Refineries Ltd.</t>
-  </si>
-  <si>
     <t>Kochi Refineries Ltd.</t>
   </si>
   <si>
-    <t>33 Mangalore Refinery &amp; Petrochemicals Ltd.</t>
-  </si>
-  <si>
     <t>Mangalore Refinery &amp; Petrochemicals Ltd.</t>
   </si>
   <si>
-    <t>34 Nagarjuna Fertilizers &amp; Chemicals Ltd.</t>
-  </si>
-  <si>
     <t>Nagarjuna Fertilizers &amp; Chemicals Ltd.</t>
   </si>
   <si>
-    <t>35 OBC</t>
-  </si>
-  <si>
     <t>OBC</t>
   </si>
   <si>
-    <t>36 Ponds (India) Ltd.</t>
-  </si>
-  <si>
     <t>Ponds (India) Ltd.</t>
   </si>
   <si>
-    <t>37 RANBAXY LABS</t>
-  </si>
-  <si>
     <t>RANBAXY LABS</t>
   </si>
   <si>
-    <t>39 Reliance Industries Ltd.</t>
-  </si>
-  <si>
     <t>Reliance Industries Ltd.</t>
   </si>
   <si>
-    <t>41 Reliance Petroleum Ltd.</t>
-  </si>
-  <si>
     <t>Reliance Petroleum Ltd.</t>
   </si>
   <si>
-    <t>48 TATA TEA</t>
-  </si>
-  <si>
     <t>TATA TEA</t>
-  </si>
-  <si>
-    <t>50 TVS Suzuki Ltd.</t>
   </si>
   <si>
     <t>TVS Suzuki Ltd.</t>
@@ -1155,7 +1020,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,869 +1033,869 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D100" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2040,396 +1905,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="14" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="24" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="34" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="35" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="37" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="39" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="40" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
